--- a/AppsRating/submission/resultado.xlsx
+++ b/AppsRating/submission/resultado.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Algoritmo</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>ImputaciónMediana</t>
+  </si>
+  <si>
+    <t>Tiempo</t>
   </si>
 </sst>
 </file>
@@ -369,10 +372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -383,7 +386,7 @@
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -396,8 +399,11 @@
       <c r="D1" t="s">
         <v>6</v>
       </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -410,8 +416,11 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
+      <c r="E2">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -424,8 +433,11 @@
       <c r="D3" t="s">
         <v>7</v>
       </c>
+      <c r="E3">
+        <v>16</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -437,6 +449,9 @@
       </c>
       <c r="D4" t="s">
         <v>7</v>
+      </c>
+      <c r="E4">
+        <v>400</v>
       </c>
     </row>
   </sheetData>

--- a/AppsRating/submission/resultado.xlsx
+++ b/AppsRating/submission/resultado.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="274">
   <si>
     <t>Algoritmo</t>
   </si>
@@ -54,7 +54,793 @@
     <t>ImputaciónMediana</t>
   </si>
   <si>
-    <t>Tiempo</t>
+    <t>XGBoost - Accuracy</t>
+  </si>
+  <si>
+    <t>XGBoost - ROC</t>
+  </si>
+  <si>
+    <t>XGBoost - F1</t>
+  </si>
+  <si>
+    <t>Binarización + Balanceo</t>
+  </si>
+  <si>
+    <t>Tiempo (minutos)</t>
+  </si>
+  <si>
+    <t>Rpart</t>
+  </si>
+  <si>
+    <t>Imputación KNN + Binarización + Balanceo + YeoJohnson</t>
+  </si>
+  <si>
+    <t>C5.0</t>
+  </si>
+  <si>
+    <t>Random Forest</t>
+  </si>
+  <si>
+    <t>Tiempo (Horas)</t>
+  </si>
+  <si>
+    <t>Ensamble XGBoost</t>
+  </si>
+  <si>
+    <t>Ninguno</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Ensamble svmR+RF+XGBF1</t>
+  </si>
+  <si>
+    <t>Catboost</t>
+  </si>
+  <si>
+    <t>LightGBM</t>
+  </si>
+  <si>
+    <t>Ensamble svmR+RF+XGBF1+Catboost</t>
+  </si>
+  <si>
+    <t>Lenguaje</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Py</t>
+  </si>
+  <si>
+    <t>Binarización + Balanceo + Imputación</t>
+  </si>
+  <si>
+    <t>Binarización + Balanceo + Imputación + YeoJohnson + Normalización</t>
+  </si>
+  <si>
+    <t>Catboost-Tuning-Ensamble-Bagging</t>
+  </si>
+  <si>
+    <t>Catboost-Tuning-Ensamble-Boosting</t>
+  </si>
+  <si>
+    <t>Submission</t>
+  </si>
+  <si>
+    <t>Sub1</t>
+  </si>
+  <si>
+    <t>Sub2</t>
+  </si>
+  <si>
+    <t>Sub3</t>
+  </si>
+  <si>
+    <t>Sub4</t>
+  </si>
+  <si>
+    <t>Sub5</t>
+  </si>
+  <si>
+    <t>Sub6</t>
+  </si>
+  <si>
+    <t>Sub7</t>
+  </si>
+  <si>
+    <t>Sub8</t>
+  </si>
+  <si>
+    <t>Sub9</t>
+  </si>
+  <si>
+    <t>Sub10</t>
+  </si>
+  <si>
+    <t>Sub11</t>
+  </si>
+  <si>
+    <t>Sub12</t>
+  </si>
+  <si>
+    <t>Sub13</t>
+  </si>
+  <si>
+    <t>Sub14</t>
+  </si>
+  <si>
+    <t>Sub15</t>
+  </si>
+  <si>
+    <t>Sub16</t>
+  </si>
+  <si>
+    <t>Sub17</t>
+  </si>
+  <si>
+    <t>GBM-Tuning</t>
+  </si>
+  <si>
+    <t>GBM-Tuning-Ensamble-Bagging</t>
+  </si>
+  <si>
+    <t>GBM-Tuning-Ensamble-Boosting</t>
+  </si>
+  <si>
+    <t>Sub18</t>
+  </si>
+  <si>
+    <t>Sub19</t>
+  </si>
+  <si>
+    <t>Sub20</t>
+  </si>
+  <si>
+    <t>Sub21</t>
+  </si>
+  <si>
+    <t>Sub22</t>
+  </si>
+  <si>
+    <t>Sub23</t>
+  </si>
+  <si>
+    <t>LGBM-Tuning</t>
+  </si>
+  <si>
+    <t>LGBM-Tuning-Ensamble-Bagging</t>
+  </si>
+  <si>
+    <t>LGBM-Tuning-Ensamble-Boosting</t>
+  </si>
+  <si>
+    <t>Sub24</t>
+  </si>
+  <si>
+    <t>Sub25</t>
+  </si>
+  <si>
+    <t>Sub26</t>
+  </si>
+  <si>
+    <t>XGBoost-Tuning</t>
+  </si>
+  <si>
+    <t>XGBoost-Tuning-Ensamble-Bagging</t>
+  </si>
+  <si>
+    <t>Ensamble svmR+RF+XGBF1+Catboost(Boosting)</t>
+  </si>
+  <si>
+    <t>Sub27</t>
+  </si>
+  <si>
+    <t>Sub28</t>
+  </si>
+  <si>
+    <t>Sub29</t>
+  </si>
+  <si>
+    <t>Ensamble RF+XGBF1+Catboost(Boosting)</t>
+  </si>
+  <si>
+    <t>Ensamble svmR+XGBF1+Catboost(Boosting)</t>
+  </si>
+  <si>
+    <t>Sub30</t>
+  </si>
+  <si>
+    <t>Sub31</t>
+  </si>
+  <si>
+    <t>Sub32</t>
+  </si>
+  <si>
+    <t>Catboost-Tuning (500 iter)</t>
+  </si>
+  <si>
+    <t>Catboost-Tuning (100 iter)</t>
+  </si>
+  <si>
+    <t>Sub33</t>
+  </si>
+  <si>
+    <t>svmR + XGB(F1) + Cat(AUC) + Cat(F1)</t>
+  </si>
+  <si>
+    <t>Sub34</t>
+  </si>
+  <si>
+    <t>Sub35</t>
+  </si>
+  <si>
+    <t>Sub36</t>
+  </si>
+  <si>
+    <t>0.624142289635247</t>
+  </si>
+  <si>
+    <t>Sub37</t>
+  </si>
+  <si>
+    <t>Sub38</t>
+  </si>
+  <si>
+    <t>Catboost-Tuned-AUC</t>
+  </si>
+  <si>
+    <t>Catboost-Boosting-AUC</t>
+  </si>
+  <si>
+    <t>Sub39</t>
+  </si>
+  <si>
+    <t>svmR + XGB(F1) + Cat(AUC-B1) + Cat(AUC-B2)</t>
+  </si>
+  <si>
+    <t>Sub40</t>
+  </si>
+  <si>
+    <t>Sub41</t>
+  </si>
+  <si>
+    <t>Sub42</t>
+  </si>
+  <si>
+    <t>Red Neuronal (MLP) - Threshold 0.55</t>
+  </si>
+  <si>
+    <t>Sub43</t>
+  </si>
+  <si>
+    <t>Red Neuronal (MLP) - Threshold 0.45</t>
+  </si>
+  <si>
+    <t>Red Neuronal (MLP) - Threshold 0.40</t>
+  </si>
+  <si>
+    <t>Sub44</t>
+  </si>
+  <si>
+    <t>Sub45</t>
+  </si>
+  <si>
+    <t>Red Neuronal (MLP) - Threshold 0.47</t>
+  </si>
+  <si>
+    <t>Sub46</t>
+  </si>
+  <si>
+    <t>Ensamble SVM3+XGB9+Catboost17+MLP43</t>
+  </si>
+  <si>
+    <t>Sub47</t>
+  </si>
+  <si>
+    <t>Ensamble SVM3+Catboost17+MLP43</t>
+  </si>
+  <si>
+    <t>Sub48</t>
+  </si>
+  <si>
+    <t>ImputaciónKNN + Binarización +  Balanceo</t>
+  </si>
+  <si>
+    <t>Sub49</t>
+  </si>
+  <si>
+    <t>Sub50</t>
+  </si>
+  <si>
+    <t>Sub51</t>
+  </si>
+  <si>
+    <t>Sub52</t>
+  </si>
+  <si>
+    <t>Red Neuronal (MLP) - Threshold 0.50</t>
+  </si>
+  <si>
+    <t>LightGBM-ROC (treesnip-Linux)  - Threshold 0.50</t>
+  </si>
+  <si>
+    <t>LightGBM-ROC (treesnip-Linux)  - Threshold 0.55</t>
+  </si>
+  <si>
+    <t>LightGBM-ROC (treesnip-Linux)  - Threshold 0.45</t>
+  </si>
+  <si>
+    <t>LightGBM-ROC (treesnip-Linux)  - Threshold 0.40</t>
+  </si>
+  <si>
+    <t>LightGBM-ROC (treesnip-Linux) - Threshold 0.47</t>
+  </si>
+  <si>
+    <t>Sub53</t>
+  </si>
+  <si>
+    <t>Sub54</t>
+  </si>
+  <si>
+    <t>Sub55</t>
+  </si>
+  <si>
+    <t>Sub56</t>
+  </si>
+  <si>
+    <t>Sub57</t>
+  </si>
+  <si>
+    <t>LightGBM-F1 (treesnip-Linux)  - Threshold 0.50</t>
+  </si>
+  <si>
+    <t>LightGBM-F1 (treesnip-Linux)  - Threshold 0.55</t>
+  </si>
+  <si>
+    <t>LightGBM-F1 (treesnip-Linux)  - Threshold 0.45</t>
+  </si>
+  <si>
+    <t>LightGBM-F1 (treesnip-Linux)  - Threshold 0.40</t>
+  </si>
+  <si>
+    <t>LightGBM-F1 (treesnip-Linux) - Threshold 0.47</t>
+  </si>
+  <si>
+    <t>Sub58</t>
+  </si>
+  <si>
+    <t>Ensamble SVM3+Catboost17+MLP43+LighGBM51</t>
+  </si>
+  <si>
+    <t>Sub59</t>
+  </si>
+  <si>
+    <t>Sub60</t>
+  </si>
+  <si>
+    <t>Ensamble SVM3+MLP43+LighGBM51</t>
+  </si>
+  <si>
+    <t>Sub61</t>
+  </si>
+  <si>
+    <t>Ensamble Catboost17+MLP43+LighGBM51</t>
+  </si>
+  <si>
+    <t>Sub62</t>
+  </si>
+  <si>
+    <t>Sub63</t>
+  </si>
+  <si>
+    <t>Sub64</t>
+  </si>
+  <si>
+    <t>Ensamble MLP43+LightGBM-ROC (Probs:0.5)</t>
+  </si>
+  <si>
+    <t>Ensamble MLP43+LightGBM-ROC (Probs:0.45)</t>
+  </si>
+  <si>
+    <t>Ensamble MLP43+LightGBM-ROC (Probs:0.40)</t>
+  </si>
+  <si>
+    <t>Ensamble MLP43+LightGBM-ROC + LightGBM-F1 (Probs:0.5)</t>
+  </si>
+  <si>
+    <t>Ensamble MLP43+LightGBM-ROC + LightGBM-F1 (Probs:0.45)</t>
+  </si>
+  <si>
+    <t>Ensamble MLP43+LightGBM-ROC + LightGBM-F1 (Probs:0.40)</t>
+  </si>
+  <si>
+    <t>Sub65</t>
+  </si>
+  <si>
+    <t>Sub66</t>
+  </si>
+  <si>
+    <t>Sub67</t>
+  </si>
+  <si>
+    <t>Sub68</t>
+  </si>
+  <si>
+    <t>Ensamble SVM3+Catboost17+(MLP+LightGBM Probs 63)</t>
+  </si>
+  <si>
+    <t>Sub69</t>
+  </si>
+  <si>
+    <t>Catboost-ROC (treesnip-Linux)  - Threshold 0.50</t>
+  </si>
+  <si>
+    <t>Catboost-ROC (treesnip-Linux)  - Threshold 0.55</t>
+  </si>
+  <si>
+    <t>Catboost-ROC (treesnip-Linux)  - Threshold 0.45</t>
+  </si>
+  <si>
+    <t>Catboost-ROC (treesnip-Linux)  - Threshold 0.40</t>
+  </si>
+  <si>
+    <t>Catboost-ROC (treesnip-Linux) - Threshold 0.47</t>
+  </si>
+  <si>
+    <t>Catboost-F1 (treesnip-Linux)  - Threshold 0.50</t>
+  </si>
+  <si>
+    <t>Catboost-F1 (treesnip-Linux)  - Threshold 0.55</t>
+  </si>
+  <si>
+    <t>Catboost-F1 (treesnip-Linux)  - Threshold 0.45</t>
+  </si>
+  <si>
+    <t>Catboost-F1 (treesnip-Linux)  - Threshold 0.40</t>
+  </si>
+  <si>
+    <t>Catboost-F1 (treesnip-Linux) - Threshold 0.47</t>
+  </si>
+  <si>
+    <t>Sub70</t>
+  </si>
+  <si>
+    <t>Sub71</t>
+  </si>
+  <si>
+    <t>Sub72</t>
+  </si>
+  <si>
+    <t>Sub73</t>
+  </si>
+  <si>
+    <t>Sub74</t>
+  </si>
+  <si>
+    <t>Sub75</t>
+  </si>
+  <si>
+    <t>Sub76</t>
+  </si>
+  <si>
+    <t>Sub77</t>
+  </si>
+  <si>
+    <t>Sub78</t>
+  </si>
+  <si>
+    <t>Sub79</t>
+  </si>
+  <si>
+    <t>Ensamble SVM3+MLP43+LighGBM51+Catboost78</t>
+  </si>
+  <si>
+    <t>Sub80</t>
+  </si>
+  <si>
+    <t>Sub81</t>
+  </si>
+  <si>
+    <t>Ensamble Catboost17+MLP43+LighGBM51+Catboost78</t>
+  </si>
+  <si>
+    <t>Sub82</t>
+  </si>
+  <si>
+    <t>Ensamble MLP43+LighGBM51+Catboost78</t>
+  </si>
+  <si>
+    <t>Ensamble MLP43+LightGBM-ROC + CatboostF1 (Probs:0.5)</t>
+  </si>
+  <si>
+    <t>Ensamble MLP43+LightGBM-ROC + CatboostF1(Probs:0.45)</t>
+  </si>
+  <si>
+    <t>Ensamble MLP43+LightGBM-ROC + CatboostF1(Probs:0.40)</t>
+  </si>
+  <si>
+    <t>Sub83</t>
+  </si>
+  <si>
+    <t>Sub84</t>
+  </si>
+  <si>
+    <t>Sub85</t>
+  </si>
+  <si>
+    <t>Ensamble SVM3+Catboost17+(MLP+LightGBM+Catboost Probs 85)</t>
+  </si>
+  <si>
+    <t>Sub86</t>
+  </si>
+  <si>
+    <t>Sub87</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>GLM-Regularizado - Threshold 0.50</t>
+  </si>
+  <si>
+    <t>GLM-Regularizado - Threshold 0.55</t>
+  </si>
+  <si>
+    <t>GLM-Regularizado - Threshold 0.45</t>
+  </si>
+  <si>
+    <t>GLM-Regularizado - Threshold 0.40</t>
+  </si>
+  <si>
+    <t>Sub88</t>
+  </si>
+  <si>
+    <t>Sub89</t>
+  </si>
+  <si>
+    <t>Sub90</t>
+  </si>
+  <si>
+    <t>Sub91</t>
+  </si>
+  <si>
+    <t>Sub92</t>
+  </si>
+  <si>
+    <t>Sub93</t>
+  </si>
+  <si>
+    <t>Sub94</t>
+  </si>
+  <si>
+    <t>SVM Radial - Threshold 0.50</t>
+  </si>
+  <si>
+    <t>SVM Radial - Threshold 0.55</t>
+  </si>
+  <si>
+    <t>SVM Radial - Threshold 0.45</t>
+  </si>
+  <si>
+    <t>SVM Radial - Threshold 0.40</t>
+  </si>
+  <si>
+    <t>Sub95</t>
+  </si>
+  <si>
+    <t>Sub96</t>
+  </si>
+  <si>
+    <t>Sub97</t>
+  </si>
+  <si>
+    <t>Sub98</t>
+  </si>
+  <si>
+    <t>XGBoost - Threshold 0.50</t>
+  </si>
+  <si>
+    <t>XGBoost  - Threshold 0.55</t>
+  </si>
+  <si>
+    <t>XGBoost - Threshold 0.45</t>
+  </si>
+  <si>
+    <t>XGBoost - Threshold 0.40</t>
+  </si>
+  <si>
+    <t>Sub99</t>
+  </si>
+  <si>
+    <t>Sub100</t>
+  </si>
+  <si>
+    <t>Sub101</t>
+  </si>
+  <si>
+    <t>Sub102</t>
+  </si>
+  <si>
+    <t>MLP - Threshold 0.50</t>
+  </si>
+  <si>
+    <t>MLP - Threshold 0.55</t>
+  </si>
+  <si>
+    <t>MLP - Threshold 0.45</t>
+  </si>
+  <si>
+    <t>MLP - Threshold 0.40</t>
+  </si>
+  <si>
+    <t>Sub103</t>
+  </si>
+  <si>
+    <t>Sub104</t>
+  </si>
+  <si>
+    <t>Sub105</t>
+  </si>
+  <si>
+    <t>Sub106</t>
+  </si>
+  <si>
+    <t>Sub107</t>
+  </si>
+  <si>
+    <t>Sub108</t>
+  </si>
+  <si>
+    <t>Sub109</t>
+  </si>
+  <si>
+    <t>Sub110</t>
+  </si>
+  <si>
+    <t>Sub111</t>
+  </si>
+  <si>
+    <t>Sub112</t>
+  </si>
+  <si>
+    <t>Sub113</t>
+  </si>
+  <si>
+    <t>Sub114</t>
+  </si>
+  <si>
+    <t>Sub115</t>
+  </si>
+  <si>
+    <t>Sub116</t>
+  </si>
+  <si>
+    <t>Sub117</t>
+  </si>
+  <si>
+    <t>Sub118</t>
+  </si>
+  <si>
+    <t>Sub119</t>
+  </si>
+  <si>
+    <t>Sub120</t>
+  </si>
+  <si>
+    <t>MLP - Threshold 0.50 - Linux (K Fold = 20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MLP - Threshold 0.55 - Linux (K Fold = 20) </t>
+  </si>
+  <si>
+    <t>MLP - Threshold 0.45 - Linux (K Fold = 20)</t>
+  </si>
+  <si>
+    <t>MLP - Threshold 0.40 - Linux (K Fold = 20)</t>
+  </si>
+  <si>
+    <t>Sub121</t>
+  </si>
+  <si>
+    <t>Sub122</t>
+  </si>
+  <si>
+    <t>Sub123</t>
+  </si>
+  <si>
+    <t>Sub124</t>
+  </si>
+  <si>
+    <t>Sub125</t>
+  </si>
+  <si>
+    <t>MLP - Threshold 0.47 - Linux (K Fold = 20)</t>
+  </si>
+  <si>
+    <t>Sub126</t>
+  </si>
+  <si>
+    <t>Sub127</t>
+  </si>
+  <si>
+    <t>Ensamble LightGBM103+Catboost114+MLP123 (MLP)</t>
+  </si>
+  <si>
+    <t>Ensamble LightGBM103+Catboost114+MLP123 (Catboost)</t>
+  </si>
+  <si>
+    <t>Sub128</t>
+  </si>
+  <si>
+    <t>Ensamble LightGBM103+Catboost114+MLP123 (LightGBM)</t>
+  </si>
+  <si>
+    <t>Sub129</t>
+  </si>
+  <si>
+    <t>Ensamble XGBoost98+LightGBM103+Catboost114+MLP123 (LightGBM)</t>
+  </si>
+  <si>
+    <t>Sub130</t>
+  </si>
+  <si>
+    <t>Ensamble XGBoost98+LightGBM103+Catboost114+MLP123 (Catboost)</t>
+  </si>
+  <si>
+    <t>Sub131</t>
+  </si>
+  <si>
+    <t>Ensamble XGBoost98+LightGBM103+Catboost114+MLP123 (MLP)</t>
+  </si>
+  <si>
+    <t>Sub132</t>
+  </si>
+  <si>
+    <t>Ensamble XGBoost98+LightGBM103+Catboost114+MLP123 (XGBoost)</t>
+  </si>
+  <si>
+    <t>Ensamble SVM94+LightGBM103+Catboost114+MLP123 (Catboost)</t>
+  </si>
+  <si>
+    <t>Sub133</t>
+  </si>
+  <si>
+    <t>Ensamble LightGBM-FE1+Catboost-FE1+MLP-FE1(Probs 0.5)</t>
+  </si>
+  <si>
+    <t>Sub134</t>
+  </si>
+  <si>
+    <t>Sub135</t>
+  </si>
+  <si>
+    <t>Ensamble LightGBM-FE1+Catboost-FE1+MLP-FE1(Probs 0.45)</t>
+  </si>
+  <si>
+    <t>Sub136</t>
+  </si>
+  <si>
+    <t>Ensamble LightGBM-FE1+Catboost-FE1+MLP-FE1(Probs 0.40)</t>
+  </si>
+  <si>
+    <t>Sub137</t>
+  </si>
+  <si>
+    <t>Ensamble SVM+XGBoost+LightGBM+Catboost+MLP (probs 0.5)</t>
+  </si>
+  <si>
+    <t>Sub138</t>
+  </si>
+  <si>
+    <t>Sub139</t>
+  </si>
+  <si>
+    <t>Ensamble SVM+XGBoost+LightGBM+Catboost+MLP (probs 0.45)</t>
+  </si>
+  <si>
+    <t>Ensamble SVM+XGBoost+LightGBM+Catboost+MLP (probs 0.40)</t>
   </si>
 </sst>
 </file>
@@ -70,12 +856,36 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -90,8 +900,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -372,86 +1187,3742 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:H140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A123" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D151" sqref="D151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="69.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0.52061198470038295</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <v>8</v>
+      </c>
+      <c r="G2">
+        <f>F2/60</f>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="H2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>0.54414669767945001</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <v>16</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G15" si="0">F3/60</f>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.58985743551151804</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <v>400</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>0.57970352445636597</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5">
+        <v>20</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6">
+        <v>0.57849219233147797</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7">
+        <v>0.58054390591897598</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7">
+        <v>1200</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>0.52061198470038295</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="C8">
+        <v>0.58891848354838205</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>510</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>8.5</v>
+      </c>
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>0.58260699628688695</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>510</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>8.5</v>
+      </c>
+      <c r="H9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.60859247666489602</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10">
+        <v>510</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>8.5</v>
+      </c>
+      <c r="H10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11">
+        <v>0.59641031415740797</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12">
+        <v>0.63500121404266996</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13">
+        <v>0.54948551084487496</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14">
+        <v>0.43242682395257698</v>
+      </c>
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15">
+        <v>0.60948608212782496</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16">
+        <v>0.57723339181065103</v>
+      </c>
+      <c r="D16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16">
+        <v>30</v>
+      </c>
+      <c r="G16">
+        <f>F16/60</f>
+        <v>0.5</v>
+      </c>
+      <c r="H16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17">
+        <v>0.57204567876665602</v>
+      </c>
+      <c r="D17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17">
+        <v>10</v>
+      </c>
+      <c r="G17">
+        <f t="shared" ref="G17:G32" si="1">F17/60</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.61916864919543702</v>
+      </c>
+      <c r="D18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18">
+        <v>20</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19">
+        <v>0.55915232956723204</v>
+      </c>
+      <c r="D19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19">
+        <v>6</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="H19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20">
+        <v>0.52950342358216895</v>
+      </c>
+      <c r="D20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>0.05</v>
+      </c>
+      <c r="H20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>0.05</v>
+      </c>
+      <c r="H21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22">
+        <v>0.55915232956723204</v>
+      </c>
+      <c r="D22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22">
+        <v>6</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="H22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23">
+        <v>0.51043094768364194</v>
+      </c>
+      <c r="D23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23">
+        <v>5</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24">
+        <v>5</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25">
+        <v>16</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="H25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26">
+        <v>7</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>0.11666666666666667</v>
+      </c>
+      <c r="H26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27">
+        <v>0.62370499419279901</v>
+      </c>
+      <c r="D27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28">
+        <v>0.60796912056531605</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29">
+        <v>0.60796912056531605</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30">
+        <v>0.63687919416074701</v>
+      </c>
+      <c r="D30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31">
+        <v>0.63687919416074701</v>
+      </c>
+      <c r="D31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32">
+        <v>0.54909259447011205</v>
+      </c>
+      <c r="D32" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32">
+        <v>80</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="H32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33">
+        <v>0.61712296419471302</v>
+      </c>
+      <c r="D33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33">
+        <v>125</v>
+      </c>
+      <c r="G33">
+        <f>F33/60</f>
+        <v>2.0833333333333335</v>
+      </c>
+      <c r="H33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34">
+        <v>0.62784226747281002</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <f t="shared" ref="G34:G60" si="2">F34/60</f>
+        <v>0</v>
+      </c>
+      <c r="H34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>83</v>
+      </c>
+      <c r="B35" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35">
+        <v>0.62784226747281002</v>
+      </c>
+      <c r="D35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" t="s">
+        <v>86</v>
+      </c>
+      <c r="D36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H36" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37">
+        <v>0.64191013417537801</v>
+      </c>
+      <c r="D37" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H37" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>87</v>
+      </c>
+      <c r="B38" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38">
+        <v>0.53148412373924903</v>
+      </c>
+      <c r="D38" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38">
+        <v>120</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>0.54414669767945001</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>0.58985743551151804</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="H38" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39">
+        <v>0.61827768014059703</v>
+      </c>
+      <c r="D39" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39">
+        <v>150</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="H39" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>91</v>
+      </c>
+      <c r="B40" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40">
+        <v>0.62268206787898095</v>
+      </c>
+      <c r="D40" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H40" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>93</v>
+      </c>
+      <c r="B41" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41">
+        <v>0.63599129341794702</v>
+      </c>
+      <c r="D41" t="s">
+        <v>22</v>
+      </c>
+      <c r="E41" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H41" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>94</v>
+      </c>
+      <c r="B42" t="s">
+        <v>113</v>
+      </c>
+      <c r="C42">
+        <v>0.63441095229661304</v>
+      </c>
+      <c r="D42" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4">
-        <v>400</v>
+      <c r="E42" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42">
+        <v>125</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="2"/>
+        <v>2.0833333333333335</v>
+      </c>
+      <c r="H42" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43">
+        <v>0.59431026745313298</v>
+      </c>
+      <c r="D43" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43">
+        <v>125</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="2"/>
+        <v>2.0833333333333335</v>
+      </c>
+      <c r="H43" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>97</v>
+      </c>
+      <c r="B44" t="s">
+        <v>98</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0.65504237459957004</v>
+      </c>
+      <c r="D44" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44">
+        <v>125</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="2"/>
+        <v>2.0833333333333335</v>
+      </c>
+      <c r="H44" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>100</v>
+      </c>
+      <c r="B45" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45">
+        <v>0.58772333608208505</v>
+      </c>
+      <c r="D45" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45">
+        <v>125</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="2"/>
+        <v>2.0833333333333335</v>
+      </c>
+      <c r="H45" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>101</v>
+      </c>
+      <c r="B46" t="s">
+        <v>102</v>
+      </c>
+      <c r="C46">
+        <v>0.64939467312348698</v>
+      </c>
+      <c r="D46" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46">
+        <v>125</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="2"/>
+        <v>2.0833333333333335</v>
+      </c>
+      <c r="H46" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>103</v>
+      </c>
+      <c r="B47" t="s">
+        <v>104</v>
+      </c>
+      <c r="C47">
+        <v>0.66605314569799401</v>
+      </c>
+      <c r="D47" t="s">
+        <v>22</v>
+      </c>
+      <c r="E47" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>105</v>
+      </c>
+      <c r="B48" t="s">
+        <v>106</v>
+      </c>
+      <c r="C48" s="3">
+        <v>0.67148467523848598</v>
+      </c>
+      <c r="D48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>107</v>
+      </c>
+      <c r="B49" t="s">
+        <v>114</v>
+      </c>
+      <c r="C49">
+        <v>0.64212862753740696</v>
+      </c>
+      <c r="D49" t="s">
+        <v>108</v>
+      </c>
+      <c r="E49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49">
+        <v>135</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="2"/>
+        <v>2.25</v>
+      </c>
+      <c r="H49" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>109</v>
+      </c>
+      <c r="B50" t="s">
+        <v>115</v>
+      </c>
+      <c r="C50">
+        <v>0.60637912287060503</v>
+      </c>
+      <c r="D50" t="s">
+        <v>108</v>
+      </c>
+      <c r="E50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50">
+        <v>135</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="2"/>
+        <v>2.25</v>
+      </c>
+      <c r="H50" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>110</v>
+      </c>
+      <c r="B51" t="s">
+        <v>116</v>
+      </c>
+      <c r="C51" s="2">
+        <v>0.65034289577900095</v>
+      </c>
+      <c r="D51" t="s">
+        <v>108</v>
+      </c>
+      <c r="E51" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51">
+        <v>135</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="2"/>
+        <v>2.25</v>
+      </c>
+      <c r="H51" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>111</v>
+      </c>
+      <c r="B52" t="s">
+        <v>117</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0.65444809859071296</v>
+      </c>
+      <c r="D52" t="s">
+        <v>108</v>
+      </c>
+      <c r="E52" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52">
+        <v>135</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="2"/>
+        <v>2.25</v>
+      </c>
+      <c r="H52" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>112</v>
+      </c>
+      <c r="B53" t="s">
+        <v>118</v>
+      </c>
+      <c r="C53">
+        <v>0.64747679095811494</v>
+      </c>
+      <c r="D53" t="s">
+        <v>108</v>
+      </c>
+      <c r="E53" t="s">
+        <v>7</v>
+      </c>
+      <c r="F53">
+        <v>135</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="2"/>
+        <v>2.25</v>
+      </c>
+      <c r="H53" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>119</v>
+      </c>
+      <c r="B54" t="s">
+        <v>124</v>
+      </c>
+      <c r="C54">
+        <v>0.649696948048469</v>
+      </c>
+      <c r="D54" t="s">
+        <v>108</v>
+      </c>
+      <c r="E54" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54">
+        <v>135</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="2"/>
+        <v>2.25</v>
+      </c>
+      <c r="H54" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>120</v>
+      </c>
+      <c r="B55" t="s">
+        <v>125</v>
+      </c>
+      <c r="C55">
+        <v>0.63861012892459801</v>
+      </c>
+      <c r="D55" t="s">
+        <v>108</v>
+      </c>
+      <c r="E55" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55">
+        <v>135</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="2"/>
+        <v>2.25</v>
+      </c>
+      <c r="H55" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>121</v>
+      </c>
+      <c r="B56" t="s">
+        <v>126</v>
+      </c>
+      <c r="C56">
+        <v>0.64936263535432004</v>
+      </c>
+      <c r="D56" t="s">
+        <v>108</v>
+      </c>
+      <c r="E56" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56">
+        <v>135</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="2"/>
+        <v>2.25</v>
+      </c>
+      <c r="H56" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>122</v>
+      </c>
+      <c r="B57" t="s">
+        <v>127</v>
+      </c>
+      <c r="C57">
+        <v>0.64559303564092896</v>
+      </c>
+      <c r="D57" t="s">
+        <v>108</v>
+      </c>
+      <c r="E57" t="s">
+        <v>7</v>
+      </c>
+      <c r="F57">
+        <v>135</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="2"/>
+        <v>2.25</v>
+      </c>
+      <c r="H57" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>123</v>
+      </c>
+      <c r="B58" t="s">
+        <v>128</v>
+      </c>
+      <c r="C58">
+        <v>0.651950836064632</v>
+      </c>
+      <c r="D58" t="s">
+        <v>108</v>
+      </c>
+      <c r="E58" t="s">
+        <v>7</v>
+      </c>
+      <c r="F58">
+        <v>135</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="2"/>
+        <v>2.25</v>
+      </c>
+      <c r="H58" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>129</v>
+      </c>
+      <c r="B59" t="s">
+        <v>130</v>
+      </c>
+      <c r="C59">
+        <v>0.65733023071892405</v>
+      </c>
+      <c r="D59" t="s">
+        <v>22</v>
+      </c>
+      <c r="E59" t="s">
+        <v>7</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>131</v>
+      </c>
+      <c r="B60" t="s">
+        <v>130</v>
+      </c>
+      <c r="C60">
+        <v>0.66537754327057597</v>
+      </c>
+      <c r="D60" t="s">
+        <v>22</v>
+      </c>
+      <c r="E60" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>132</v>
+      </c>
+      <c r="B61" t="s">
+        <v>133</v>
+      </c>
+      <c r="C61">
+        <v>0.65473938546153898</v>
+      </c>
+      <c r="D61" t="s">
+        <v>22</v>
+      </c>
+      <c r="E61" t="s">
+        <v>7</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>134</v>
+      </c>
+      <c r="B62" t="s">
+        <v>135</v>
+      </c>
+      <c r="C62">
+        <v>0.66718868086233596</v>
+      </c>
+      <c r="D62" t="s">
+        <v>22</v>
+      </c>
+      <c r="E62" t="s">
+        <v>7</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>136</v>
+      </c>
+      <c r="B63" t="s">
+        <v>139</v>
+      </c>
+      <c r="C63">
+        <v>0.64351426937178902</v>
+      </c>
+      <c r="D63" t="s">
+        <v>22</v>
+      </c>
+      <c r="E63" t="s">
+        <v>7</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>137</v>
+      </c>
+      <c r="B64" t="s">
+        <v>140</v>
+      </c>
+      <c r="C64" s="2">
+        <v>0.66729726262261002</v>
+      </c>
+      <c r="D64" t="s">
+        <v>22</v>
+      </c>
+      <c r="E64" t="s">
+        <v>7</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>138</v>
+      </c>
+      <c r="B65" t="s">
+        <v>141</v>
+      </c>
+      <c r="C65">
+        <v>0.65217860690072105</v>
+      </c>
+      <c r="D65" t="s">
+        <v>22</v>
+      </c>
+      <c r="E65" t="s">
+        <v>7</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>145</v>
+      </c>
+      <c r="B66" t="s">
+        <v>142</v>
+      </c>
+      <c r="C66">
+        <v>0.64907298674548897</v>
+      </c>
+      <c r="D66" t="s">
+        <v>22</v>
+      </c>
+      <c r="E66" t="s">
+        <v>7</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>146</v>
+      </c>
+      <c r="B67" t="s">
+        <v>143</v>
+      </c>
+      <c r="C67" s="2">
+        <v>0.66643746630899803</v>
+      </c>
+      <c r="D67" t="s">
+        <v>22</v>
+      </c>
+      <c r="E67" t="s">
+        <v>7</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>147</v>
+      </c>
+      <c r="B68" t="s">
+        <v>144</v>
+      </c>
+      <c r="C68">
+        <v>0.65638640382559899</v>
+      </c>
+      <c r="D68" t="s">
+        <v>22</v>
+      </c>
+      <c r="E68" t="s">
+        <v>7</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>148</v>
+      </c>
+      <c r="B69" t="s">
+        <v>149</v>
+      </c>
+      <c r="C69" s="3">
+        <v>0.67249413786433299</v>
+      </c>
+      <c r="D69" t="s">
+        <v>22</v>
+      </c>
+      <c r="E69" t="s">
+        <v>7</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <f t="shared" ref="G69:G80" si="3">F69/60</f>
+        <v>0</v>
+      </c>
+      <c r="H69" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>150</v>
+      </c>
+      <c r="B70" t="s">
+        <v>151</v>
+      </c>
+      <c r="C70">
+        <v>0.57080332033929904</v>
+      </c>
+      <c r="D70" t="s">
+        <v>108</v>
+      </c>
+      <c r="E70" t="s">
+        <v>7</v>
+      </c>
+      <c r="F70">
+        <v>115</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="3"/>
+        <v>1.9166666666666667</v>
+      </c>
+      <c r="H70" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>161</v>
+      </c>
+      <c r="B71" t="s">
+        <v>152</v>
+      </c>
+      <c r="C71">
+        <v>0.619571475686583</v>
+      </c>
+      <c r="D71" t="s">
+        <v>108</v>
+      </c>
+      <c r="E71" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71">
+        <v>115</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="3"/>
+        <v>1.9166666666666667</v>
+      </c>
+      <c r="H71" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>162</v>
+      </c>
+      <c r="B72" t="s">
+        <v>153</v>
+      </c>
+      <c r="C72">
+        <v>0.64737671996032398</v>
+      </c>
+      <c r="D72" t="s">
+        <v>108</v>
+      </c>
+      <c r="E72" t="s">
+        <v>7</v>
+      </c>
+      <c r="F72">
+        <v>115</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="3"/>
+        <v>1.9166666666666667</v>
+      </c>
+      <c r="H72" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>163</v>
+      </c>
+      <c r="B73" t="s">
+        <v>154</v>
+      </c>
+      <c r="C73" s="1">
+        <v>0.65149356758011501</v>
+      </c>
+      <c r="D73" t="s">
+        <v>108</v>
+      </c>
+      <c r="E73" t="s">
+        <v>7</v>
+      </c>
+      <c r="F73">
+        <v>115</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="3"/>
+        <v>1.9166666666666667</v>
+      </c>
+      <c r="H73" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>164</v>
+      </c>
+      <c r="B74" t="s">
+        <v>155</v>
+      </c>
+      <c r="C74">
+        <v>0.65074313454566002</v>
+      </c>
+      <c r="D74" t="s">
+        <v>108</v>
+      </c>
+      <c r="E74" t="s">
+        <v>7</v>
+      </c>
+      <c r="F74">
+        <v>115</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="3"/>
+        <v>1.9166666666666667</v>
+      </c>
+      <c r="H74" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>165</v>
+      </c>
+      <c r="B75" t="s">
+        <v>156</v>
+      </c>
+      <c r="C75">
+        <v>0.60567726260376598</v>
+      </c>
+      <c r="D75" t="s">
+        <v>108</v>
+      </c>
+      <c r="E75" t="s">
+        <v>7</v>
+      </c>
+      <c r="F75">
+        <v>115</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="3"/>
+        <v>1.9166666666666667</v>
+      </c>
+      <c r="H75" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>166</v>
+      </c>
+      <c r="B76" t="s">
+        <v>157</v>
+      </c>
+      <c r="C76">
+        <v>0.63630618718412901</v>
+      </c>
+      <c r="D76" t="s">
+        <v>108</v>
+      </c>
+      <c r="E76" t="s">
+        <v>7</v>
+      </c>
+      <c r="F76">
+        <v>115</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="3"/>
+        <v>1.9166666666666667</v>
+      </c>
+      <c r="H76" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>167</v>
+      </c>
+      <c r="B77" t="s">
+        <v>158</v>
+      </c>
+      <c r="C77">
+        <v>0.64973670238336501</v>
+      </c>
+      <c r="D77" t="s">
+        <v>108</v>
+      </c>
+      <c r="E77" t="s">
+        <v>7</v>
+      </c>
+      <c r="F77">
+        <v>115</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="3"/>
+        <v>1.9166666666666667</v>
+      </c>
+      <c r="H77" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>168</v>
+      </c>
+      <c r="B78" t="s">
+        <v>159</v>
+      </c>
+      <c r="C78">
+        <v>0.63654618473895497</v>
+      </c>
+      <c r="D78" t="s">
+        <v>108</v>
+      </c>
+      <c r="E78" t="s">
+        <v>7</v>
+      </c>
+      <c r="F78">
+        <v>115</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="3"/>
+        <v>1.9166666666666667</v>
+      </c>
+      <c r="H78" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>169</v>
+      </c>
+      <c r="B79" t="s">
+        <v>160</v>
+      </c>
+      <c r="C79" s="1">
+        <v>0.65325670498084198</v>
+      </c>
+      <c r="D79" t="s">
+        <v>108</v>
+      </c>
+      <c r="E79" t="s">
+        <v>7</v>
+      </c>
+      <c r="F79">
+        <v>115</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="3"/>
+        <v>1.9166666666666667</v>
+      </c>
+      <c r="H79" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>170</v>
+      </c>
+      <c r="B80" t="s">
+        <v>171</v>
+      </c>
+      <c r="C80">
+        <v>0.65564148663945998</v>
+      </c>
+      <c r="D80" t="s">
+        <v>22</v>
+      </c>
+      <c r="E80" t="s">
+        <v>7</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>172</v>
+      </c>
+      <c r="B81" t="s">
+        <v>171</v>
+      </c>
+      <c r="C81">
+        <v>0.65676501777805496</v>
+      </c>
+      <c r="D81" t="s">
+        <v>22</v>
+      </c>
+      <c r="E81" t="s">
+        <v>7</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <f t="shared" ref="G81" si="4">F81/60</f>
+        <v>0</v>
+      </c>
+      <c r="H81" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>173</v>
+      </c>
+      <c r="B82" t="s">
+        <v>174</v>
+      </c>
+      <c r="C82">
+        <v>0.66419445166722701</v>
+      </c>
+      <c r="D82" t="s">
+        <v>22</v>
+      </c>
+      <c r="E82" t="s">
+        <v>7</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <f t="shared" ref="G82" si="5">F82/60</f>
+        <v>0</v>
+      </c>
+      <c r="H82" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>175</v>
+      </c>
+      <c r="B83" t="s">
+        <v>176</v>
+      </c>
+      <c r="C83">
+        <v>0.65763144755540104</v>
+      </c>
+      <c r="D83" t="s">
+        <v>22</v>
+      </c>
+      <c r="E83" t="s">
+        <v>7</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <f t="shared" ref="G83" si="6">F83/60</f>
+        <v>0</v>
+      </c>
+      <c r="H83" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>180</v>
+      </c>
+      <c r="B84" t="s">
+        <v>177</v>
+      </c>
+      <c r="C84">
+        <v>0.64896166504048003</v>
+      </c>
+      <c r="D84" t="s">
+        <v>22</v>
+      </c>
+      <c r="E84" t="s">
+        <v>7</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <f t="shared" ref="G84:G86" si="7">F84/60</f>
+        <v>0</v>
+      </c>
+      <c r="H84" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>181</v>
+      </c>
+      <c r="B85" t="s">
+        <v>178</v>
+      </c>
+      <c r="C85" s="1">
+        <v>0.66718352161620698</v>
+      </c>
+      <c r="D85" t="s">
+        <v>22</v>
+      </c>
+      <c r="E85" t="s">
+        <v>7</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>182</v>
+      </c>
+      <c r="B86" t="s">
+        <v>179</v>
+      </c>
+      <c r="C86">
+        <v>0.64722343205574895</v>
+      </c>
+      <c r="D86" t="s">
+        <v>22</v>
+      </c>
+      <c r="E86" t="s">
+        <v>7</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>184</v>
+      </c>
+      <c r="B87" t="s">
+        <v>183</v>
+      </c>
+      <c r="C87">
+        <v>0.66360617282060397</v>
+      </c>
+      <c r="D87" t="s">
+        <v>22</v>
+      </c>
+      <c r="E87" t="s">
+        <v>7</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <f t="shared" ref="G87:G126" si="8">F87/60</f>
+        <v>0</v>
+      </c>
+      <c r="H87" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>185</v>
+      </c>
+      <c r="B88" t="s">
+        <v>187</v>
+      </c>
+      <c r="C88">
+        <v>0.58456920903954801</v>
+      </c>
+      <c r="D88" t="s">
+        <v>9</v>
+      </c>
+      <c r="E88" t="s">
+        <v>186</v>
+      </c>
+      <c r="F88">
+        <v>43</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="8"/>
+        <v>0.71666666666666667</v>
+      </c>
+      <c r="H88" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>191</v>
+      </c>
+      <c r="B89" t="s">
+        <v>188</v>
+      </c>
+      <c r="C89">
+        <v>0.54371194824961899</v>
+      </c>
+      <c r="D89" t="s">
+        <v>9</v>
+      </c>
+      <c r="E89" t="s">
+        <v>186</v>
+      </c>
+      <c r="F89">
+        <v>43</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="8"/>
+        <v>0.71666666666666667</v>
+      </c>
+      <c r="H89" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>192</v>
+      </c>
+      <c r="B90" t="s">
+        <v>189</v>
+      </c>
+      <c r="C90">
+        <v>0.60647973711769898</v>
+      </c>
+      <c r="D90" t="s">
+        <v>9</v>
+      </c>
+      <c r="E90" t="s">
+        <v>186</v>
+      </c>
+      <c r="F90">
+        <v>43</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="8"/>
+        <v>0.71666666666666667</v>
+      </c>
+      <c r="H90" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>193</v>
+      </c>
+      <c r="B91" t="s">
+        <v>190</v>
+      </c>
+      <c r="C91">
+        <v>0.60381492108572499</v>
+      </c>
+      <c r="D91" t="s">
+        <v>9</v>
+      </c>
+      <c r="E91" t="s">
+        <v>186</v>
+      </c>
+      <c r="F91">
+        <v>43</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="8"/>
+        <v>0.71666666666666667</v>
+      </c>
+      <c r="H91" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>194</v>
+      </c>
+      <c r="B92" t="s">
+        <v>198</v>
+      </c>
+      <c r="C92">
+        <v>0.62291666666666601</v>
+      </c>
+      <c r="D92" t="s">
+        <v>9</v>
+      </c>
+      <c r="E92" t="s">
+        <v>186</v>
+      </c>
+      <c r="F92">
+        <v>386</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="8"/>
+        <v>6.4333333333333336</v>
+      </c>
+      <c r="H92" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>195</v>
+      </c>
+      <c r="B93" t="s">
+        <v>199</v>
+      </c>
+      <c r="C93">
+        <v>0.62214039258894105</v>
+      </c>
+      <c r="D93" t="s">
+        <v>9</v>
+      </c>
+      <c r="E93" t="s">
+        <v>186</v>
+      </c>
+      <c r="F93">
+        <v>386</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="8"/>
+        <v>6.4333333333333336</v>
+      </c>
+      <c r="H93" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>196</v>
+      </c>
+      <c r="B94" t="s">
+        <v>200</v>
+      </c>
+      <c r="C94">
+        <v>0.63205595150224403</v>
+      </c>
+      <c r="D94" t="s">
+        <v>9</v>
+      </c>
+      <c r="E94" t="s">
+        <v>186</v>
+      </c>
+      <c r="F94">
+        <v>386</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="8"/>
+        <v>6.4333333333333336</v>
+      </c>
+      <c r="H94" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>197</v>
+      </c>
+      <c r="B95" t="s">
+        <v>201</v>
+      </c>
+      <c r="C95" s="1">
+        <v>0.64854863135009999</v>
+      </c>
+      <c r="D95" t="s">
+        <v>9</v>
+      </c>
+      <c r="E95" t="s">
+        <v>186</v>
+      </c>
+      <c r="F95">
+        <v>386</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="8"/>
+        <v>6.4333333333333336</v>
+      </c>
+      <c r="H95" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>202</v>
+      </c>
+      <c r="B96" t="s">
+        <v>206</v>
+      </c>
+      <c r="C96">
+        <v>0.65322692911428704</v>
+      </c>
+      <c r="D96" t="s">
+        <v>9</v>
+      </c>
+      <c r="E96" t="s">
+        <v>186</v>
+      </c>
+      <c r="F96">
+        <v>59</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="8"/>
+        <v>0.98333333333333328</v>
+      </c>
+      <c r="H96" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>203</v>
+      </c>
+      <c r="B97" t="s">
+        <v>207</v>
+      </c>
+      <c r="C97">
+        <v>0.63783105005169904</v>
+      </c>
+      <c r="D97" t="s">
+        <v>9</v>
+      </c>
+      <c r="E97" t="s">
+        <v>186</v>
+      </c>
+      <c r="F97">
+        <v>59</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="8"/>
+        <v>0.98333333333333328</v>
+      </c>
+      <c r="H97" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>204</v>
+      </c>
+      <c r="B98" t="s">
+        <v>208</v>
+      </c>
+      <c r="C98">
+        <v>0.66362432862848397</v>
+      </c>
+      <c r="D98" t="s">
+        <v>9</v>
+      </c>
+      <c r="E98" t="s">
+        <v>186</v>
+      </c>
+      <c r="F98">
+        <v>59</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="8"/>
+        <v>0.98333333333333328</v>
+      </c>
+      <c r="H98" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>205</v>
+      </c>
+      <c r="B99" t="s">
+        <v>209</v>
+      </c>
+      <c r="C99" s="1">
+        <v>0.66450477310894096</v>
+      </c>
+      <c r="D99" t="s">
+        <v>9</v>
+      </c>
+      <c r="E99" t="s">
+        <v>186</v>
+      </c>
+      <c r="F99">
+        <v>59</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="8"/>
+        <v>0.98333333333333328</v>
+      </c>
+      <c r="H99" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>210</v>
+      </c>
+      <c r="B100" t="s">
+        <v>214</v>
+      </c>
+      <c r="D100" t="s">
+        <v>9</v>
+      </c>
+      <c r="E100" t="s">
+        <v>186</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>211</v>
+      </c>
+      <c r="B101" t="s">
+        <v>215</v>
+      </c>
+      <c r="D101" t="s">
+        <v>9</v>
+      </c>
+      <c r="E101" t="s">
+        <v>186</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>212</v>
+      </c>
+      <c r="B102" t="s">
+        <v>216</v>
+      </c>
+      <c r="D102" t="s">
+        <v>9</v>
+      </c>
+      <c r="E102" t="s">
+        <v>186</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>213</v>
+      </c>
+      <c r="B103" t="s">
+        <v>217</v>
+      </c>
+      <c r="D103" t="s">
+        <v>9</v>
+      </c>
+      <c r="E103" t="s">
+        <v>186</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H103" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>218</v>
+      </c>
+      <c r="B104" t="s">
+        <v>114</v>
+      </c>
+      <c r="C104" s="4">
+        <v>0.68316995872641495</v>
+      </c>
+      <c r="D104" t="s">
+        <v>108</v>
+      </c>
+      <c r="E104" t="s">
+        <v>186</v>
+      </c>
+      <c r="F104">
+        <v>322</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="8"/>
+        <v>5.3666666666666663</v>
+      </c>
+      <c r="H104" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>219</v>
+      </c>
+      <c r="B105" t="s">
+        <v>115</v>
+      </c>
+      <c r="C105">
+        <v>0.66420984696835395</v>
+      </c>
+      <c r="D105" t="s">
+        <v>108</v>
+      </c>
+      <c r="E105" t="s">
+        <v>186</v>
+      </c>
+      <c r="F105">
+        <v>322</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="8"/>
+        <v>5.3666666666666663</v>
+      </c>
+      <c r="H105" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>220</v>
+      </c>
+      <c r="B106" t="s">
+        <v>116</v>
+      </c>
+      <c r="C106">
+        <v>0.682188812732207</v>
+      </c>
+      <c r="D106" t="s">
+        <v>108</v>
+      </c>
+      <c r="E106" t="s">
+        <v>186</v>
+      </c>
+      <c r="F106">
+        <v>322</v>
+      </c>
+      <c r="G106">
+        <f t="shared" si="8"/>
+        <v>5.3666666666666663</v>
+      </c>
+      <c r="H106" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>221</v>
+      </c>
+      <c r="B107" t="s">
+        <v>117</v>
+      </c>
+      <c r="C107">
+        <v>0.65528486425092602</v>
+      </c>
+      <c r="D107" t="s">
+        <v>108</v>
+      </c>
+      <c r="E107" t="s">
+        <v>186</v>
+      </c>
+      <c r="F107">
+        <v>322</v>
+      </c>
+      <c r="G107">
+        <f t="shared" si="8"/>
+        <v>5.3666666666666663</v>
+      </c>
+      <c r="H107" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>222</v>
+      </c>
+      <c r="B108" t="s">
+        <v>124</v>
+      </c>
+      <c r="C108">
+        <v>0.64502235866499902</v>
+      </c>
+      <c r="D108" t="s">
+        <v>108</v>
+      </c>
+      <c r="E108" t="s">
+        <v>186</v>
+      </c>
+      <c r="F108">
+        <v>322</v>
+      </c>
+      <c r="G108">
+        <f t="shared" si="8"/>
+        <v>5.3666666666666663</v>
+      </c>
+      <c r="H108" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>223</v>
+      </c>
+      <c r="B109" t="s">
+        <v>125</v>
+      </c>
+      <c r="C109">
+        <v>0.61872981580144204</v>
+      </c>
+      <c r="D109" t="s">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>186</v>
+      </c>
+      <c r="F109">
+        <v>322</v>
+      </c>
+      <c r="G109">
+        <f t="shared" si="8"/>
+        <v>5.3666666666666663</v>
+      </c>
+      <c r="H109" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>224</v>
+      </c>
+      <c r="B110" t="s">
+        <v>126</v>
+      </c>
+      <c r="C110">
+        <v>0.65387603333222599</v>
+      </c>
+      <c r="D110" t="s">
+        <v>108</v>
+      </c>
+      <c r="E110" t="s">
+        <v>186</v>
+      </c>
+      <c r="F110">
+        <v>322</v>
+      </c>
+      <c r="G110">
+        <f t="shared" si="8"/>
+        <v>5.3666666666666663</v>
+      </c>
+      <c r="H110" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>225</v>
+      </c>
+      <c r="B111" t="s">
+        <v>127</v>
+      </c>
+      <c r="C111">
+        <v>0.67569025489304901</v>
+      </c>
+      <c r="D111" t="s">
+        <v>108</v>
+      </c>
+      <c r="E111" t="s">
+        <v>186</v>
+      </c>
+      <c r="F111">
+        <v>322</v>
+      </c>
+      <c r="G111">
+        <f t="shared" si="8"/>
+        <v>5.3666666666666663</v>
+      </c>
+      <c r="H111" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>226</v>
+      </c>
+      <c r="B112" t="s">
+        <v>151</v>
+      </c>
+      <c r="C112">
+        <v>0.60710825330310503</v>
+      </c>
+      <c r="D112" t="s">
+        <v>108</v>
+      </c>
+      <c r="E112" t="s">
+        <v>186</v>
+      </c>
+      <c r="F112">
+        <v>170</v>
+      </c>
+      <c r="G112">
+        <f t="shared" si="8"/>
+        <v>2.8333333333333335</v>
+      </c>
+      <c r="H112" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>227</v>
+      </c>
+      <c r="B113" t="s">
+        <v>152</v>
+      </c>
+      <c r="C113">
+        <v>0.64410939272395196</v>
+      </c>
+      <c r="D113" t="s">
+        <v>108</v>
+      </c>
+      <c r="E113" t="s">
+        <v>186</v>
+      </c>
+      <c r="F113">
+        <v>170</v>
+      </c>
+      <c r="G113">
+        <f t="shared" si="8"/>
+        <v>2.8333333333333335</v>
+      </c>
+      <c r="H113" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>228</v>
+      </c>
+      <c r="B114" t="s">
+        <v>153</v>
+      </c>
+      <c r="C114">
+        <v>0.68255535550603197</v>
+      </c>
+      <c r="D114" t="s">
+        <v>108</v>
+      </c>
+      <c r="E114" t="s">
+        <v>186</v>
+      </c>
+      <c r="F114">
+        <v>170</v>
+      </c>
+      <c r="G114">
+        <f t="shared" si="8"/>
+        <v>2.8333333333333335</v>
+      </c>
+      <c r="H114" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>229</v>
+      </c>
+      <c r="B115" t="s">
+        <v>154</v>
+      </c>
+      <c r="C115" s="4">
+        <v>0.68378705253161998</v>
+      </c>
+      <c r="D115" t="s">
+        <v>108</v>
+      </c>
+      <c r="E115" t="s">
+        <v>186</v>
+      </c>
+      <c r="F115">
+        <v>170</v>
+      </c>
+      <c r="G115">
+        <f t="shared" si="8"/>
+        <v>2.8333333333333335</v>
+      </c>
+      <c r="H115" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>230</v>
+      </c>
+      <c r="B116" t="s">
+        <v>155</v>
+      </c>
+      <c r="C116">
+        <v>0.68045900915811497</v>
+      </c>
+      <c r="D116" t="s">
+        <v>108</v>
+      </c>
+      <c r="E116" t="s">
+        <v>186</v>
+      </c>
+      <c r="F116">
+        <v>170</v>
+      </c>
+      <c r="G116">
+        <f t="shared" si="8"/>
+        <v>2.8333333333333335</v>
+      </c>
+      <c r="H116" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>231</v>
+      </c>
+      <c r="B117" t="s">
+        <v>156</v>
+      </c>
+      <c r="C117">
+        <v>0.62300147299873698</v>
+      </c>
+      <c r="D117" t="s">
+        <v>108</v>
+      </c>
+      <c r="E117" t="s">
+        <v>186</v>
+      </c>
+      <c r="F117">
+        <v>170</v>
+      </c>
+      <c r="G117">
+        <f t="shared" si="8"/>
+        <v>2.8333333333333335</v>
+      </c>
+      <c r="H117" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>232</v>
+      </c>
+      <c r="B118" t="s">
+        <v>157</v>
+      </c>
+      <c r="C118">
+        <v>0.64964245811838295</v>
+      </c>
+      <c r="D118" t="s">
+        <v>108</v>
+      </c>
+      <c r="E118" t="s">
+        <v>186</v>
+      </c>
+      <c r="F118">
+        <v>170</v>
+      </c>
+      <c r="G118">
+        <f t="shared" si="8"/>
+        <v>2.8333333333333335</v>
+      </c>
+      <c r="H118" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>233</v>
+      </c>
+      <c r="B119" t="s">
+        <v>158</v>
+      </c>
+      <c r="C119">
+        <v>0.66557315233785797</v>
+      </c>
+      <c r="D119" t="s">
+        <v>108</v>
+      </c>
+      <c r="E119" t="s">
+        <v>186</v>
+      </c>
+      <c r="F119">
+        <v>170</v>
+      </c>
+      <c r="G119">
+        <f t="shared" si="8"/>
+        <v>2.8333333333333335</v>
+      </c>
+      <c r="H119" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>234</v>
+      </c>
+      <c r="B120" t="s">
+        <v>159</v>
+      </c>
+      <c r="C120">
+        <v>0.67159443869727897</v>
+      </c>
+      <c r="D120" t="s">
+        <v>108</v>
+      </c>
+      <c r="E120" t="s">
+        <v>186</v>
+      </c>
+      <c r="F120">
+        <v>170</v>
+      </c>
+      <c r="G120">
+        <f t="shared" si="8"/>
+        <v>2.8333333333333335</v>
+      </c>
+      <c r="H120" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>235</v>
+      </c>
+      <c r="B121" t="s">
+        <v>160</v>
+      </c>
+      <c r="C121">
+        <v>0.66861940083951399</v>
+      </c>
+      <c r="D121" t="s">
+        <v>108</v>
+      </c>
+      <c r="E121" t="s">
+        <v>186</v>
+      </c>
+      <c r="F121">
+        <v>170</v>
+      </c>
+      <c r="G121">
+        <f t="shared" si="8"/>
+        <v>2.8333333333333335</v>
+      </c>
+      <c r="H121" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>240</v>
+      </c>
+      <c r="B122" t="s">
+        <v>236</v>
+      </c>
+      <c r="C122">
+        <v>0.65586922311076801</v>
+      </c>
+      <c r="D122" t="s">
+        <v>9</v>
+      </c>
+      <c r="E122" t="s">
+        <v>186</v>
+      </c>
+      <c r="F122">
+        <v>93.51</v>
+      </c>
+      <c r="G122">
+        <f t="shared" si="8"/>
+        <v>1.5585</v>
+      </c>
+      <c r="H122" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>241</v>
+      </c>
+      <c r="B123" t="s">
+        <v>237</v>
+      </c>
+      <c r="C123">
+        <v>0.61663617984018404</v>
+      </c>
+      <c r="D123" t="s">
+        <v>9</v>
+      </c>
+      <c r="E123" t="s">
+        <v>186</v>
+      </c>
+      <c r="F123">
+        <v>93.51</v>
+      </c>
+      <c r="G123">
+        <f t="shared" si="8"/>
+        <v>1.5585</v>
+      </c>
+      <c r="H123" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>242</v>
+      </c>
+      <c r="B124" t="s">
+        <v>238</v>
+      </c>
+      <c r="C124" s="1">
+        <v>0.67174695465344603</v>
+      </c>
+      <c r="D124" t="s">
+        <v>9</v>
+      </c>
+      <c r="E124" t="s">
+        <v>186</v>
+      </c>
+      <c r="F124">
+        <v>93.51</v>
+      </c>
+      <c r="G124">
+        <f t="shared" si="8"/>
+        <v>1.5585</v>
+      </c>
+      <c r="H124" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>243</v>
+      </c>
+      <c r="B125" t="s">
+        <v>239</v>
+      </c>
+      <c r="C125">
+        <v>0.64963960645700003</v>
+      </c>
+      <c r="D125" t="s">
+        <v>9</v>
+      </c>
+      <c r="E125" t="s">
+        <v>186</v>
+      </c>
+      <c r="F125">
+        <v>93.51</v>
+      </c>
+      <c r="G125">
+        <f t="shared" si="8"/>
+        <v>1.5585</v>
+      </c>
+      <c r="H125" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>244</v>
+      </c>
+      <c r="B126" t="s">
+        <v>245</v>
+      </c>
+      <c r="C126">
+        <v>0.67043757055972797</v>
+      </c>
+      <c r="D126" t="s">
+        <v>9</v>
+      </c>
+      <c r="E126" t="s">
+        <v>186</v>
+      </c>
+      <c r="F126">
+        <v>93.51</v>
+      </c>
+      <c r="G126">
+        <f t="shared" si="8"/>
+        <v>1.5585</v>
+      </c>
+      <c r="H126" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>246</v>
+      </c>
+      <c r="B127" t="s">
+        <v>248</v>
+      </c>
+      <c r="C127" s="5">
+        <v>0.69870940390806602</v>
+      </c>
+      <c r="D127" t="s">
+        <v>22</v>
+      </c>
+      <c r="E127" t="s">
+        <v>186</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="H127" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>247</v>
+      </c>
+      <c r="B128" t="s">
+        <v>249</v>
+      </c>
+      <c r="C128" s="5">
+        <v>0.69870940390806602</v>
+      </c>
+      <c r="D128" t="s">
+        <v>22</v>
+      </c>
+      <c r="E128" t="s">
+        <v>186</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>250</v>
+      </c>
+      <c r="B129" t="s">
+        <v>251</v>
+      </c>
+      <c r="C129" s="5">
+        <v>0.69870940390806602</v>
+      </c>
+      <c r="D129" t="s">
+        <v>22</v>
+      </c>
+      <c r="E129" t="s">
+        <v>186</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>252</v>
+      </c>
+      <c r="B130" t="s">
+        <v>255</v>
+      </c>
+      <c r="C130" s="2">
+        <v>0.69080439841219099</v>
+      </c>
+      <c r="D130" t="s">
+        <v>22</v>
+      </c>
+      <c r="E130" t="s">
+        <v>186</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+      <c r="H130" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>254</v>
+      </c>
+      <c r="B131" t="s">
+        <v>253</v>
+      </c>
+      <c r="C131" s="2">
+        <v>0.68868201113135996</v>
+      </c>
+      <c r="D131" t="s">
+        <v>22</v>
+      </c>
+      <c r="E131" t="s">
+        <v>186</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+      <c r="H131" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>256</v>
+      </c>
+      <c r="B132" t="s">
+        <v>257</v>
+      </c>
+      <c r="C132" s="2">
+        <v>0.69634293356213395</v>
+      </c>
+      <c r="D132" t="s">
+        <v>22</v>
+      </c>
+      <c r="E132" t="s">
+        <v>186</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>258</v>
+      </c>
+      <c r="B133" t="s">
+        <v>259</v>
+      </c>
+      <c r="C133" s="2">
+        <v>0.678486384760149</v>
+      </c>
+      <c r="D133" t="s">
+        <v>22</v>
+      </c>
+      <c r="E133" t="s">
+        <v>186</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="H133" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>261</v>
+      </c>
+      <c r="B134" t="s">
+        <v>260</v>
+      </c>
+      <c r="C134" s="2">
+        <v>0.69155291065842595</v>
+      </c>
+      <c r="D134" t="s">
+        <v>22</v>
+      </c>
+      <c r="E134" t="s">
+        <v>186</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+      <c r="G134">
+        <v>0</v>
+      </c>
+      <c r="H134" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>263</v>
+      </c>
+      <c r="B135" t="s">
+        <v>262</v>
+      </c>
+      <c r="C135" s="2">
+        <v>0.67657381511644499</v>
+      </c>
+      <c r="D135" t="s">
+        <v>22</v>
+      </c>
+      <c r="E135" t="s">
+        <v>186</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="H135" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>264</v>
+      </c>
+      <c r="B136" t="s">
+        <v>265</v>
+      </c>
+      <c r="C136" s="2">
+        <v>0.69068165874096599</v>
+      </c>
+      <c r="D136" t="s">
+        <v>22</v>
+      </c>
+      <c r="E136" t="s">
+        <v>186</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+      <c r="G136">
+        <v>0</v>
+      </c>
+      <c r="H136" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>266</v>
+      </c>
+      <c r="B137" t="s">
+        <v>267</v>
+      </c>
+      <c r="C137" s="2">
+        <v>0.67703143053299597</v>
+      </c>
+      <c r="D137" t="s">
+        <v>22</v>
+      </c>
+      <c r="E137" t="s">
+        <v>186</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="H137" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>268</v>
+      </c>
+      <c r="B138" t="s">
+        <v>269</v>
+      </c>
+      <c r="C138">
+        <v>0.67171593710279698</v>
+      </c>
+      <c r="D138" t="s">
+        <v>22</v>
+      </c>
+      <c r="E138" t="s">
+        <v>186</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>270</v>
+      </c>
+      <c r="B139" t="s">
+        <v>272</v>
+      </c>
+      <c r="C139">
+        <v>0.68601311150122801</v>
+      </c>
+      <c r="D139" t="s">
+        <v>22</v>
+      </c>
+      <c r="E139" t="s">
+        <v>186</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>271</v>
+      </c>
+      <c r="B140" t="s">
+        <v>273</v>
+      </c>
+      <c r="C140">
+        <v>0.67782440540106503</v>
+      </c>
+      <c r="D140" t="s">
+        <v>22</v>
+      </c>
+      <c r="E140" t="s">
+        <v>186</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="H140" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
